--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT03166969</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>HOLTER-21J</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01916785</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>A PROSPECTIVE RANDOMIZED PHASE II STUDY EVALUATING THE OPTIMIZATION OF THE RESIDUAL PLASMATIC LEVEL OF DASATINIB (SPRYCEL®) IN PATIENTS NEWLY DIAGNOSED WITH CHRONIC PHASE CHRONIC MYELOGENOUS LEUKAEMIA (CP-CML).</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>OPTIM-DASA</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -600,32 +615,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02963545</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simultaneous Assessments of Serotonin and Kynurenine Pathways Parameters in Patients Shortly (Less Than 4 Hours and a Half) After the Onset of a Cerebral Infarction</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02882568</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Analysis of Immune Response In Bacterial Infection of Obese Subject</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>ARIIBO</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -692,36 +717,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02888964</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>A Study to Assess Efficacy and Safety of Pioglitazone as Add-On Therapy to Imatinib Mesylate in CP-CML Patients in Major Molecular Response</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ACTIM</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -740,36 +770,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02896842</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>A Prospective Randomized Phase II Study Evaluating the Monitoring of Imatinib Mesylate (Glivec®) Plasmatic Through Level in Patients Newly Diagnosed With Chronic Phase Chronic Myelogenous Leukaemia (CP-CML).</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>OPTIMIMATINIB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -788,36 +823,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02888990</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>An Open Label Phase II Study to Evaluate the Efficacy and Safety of Induction and Consolidation Therapy With Dasatinib in Combination With Chemotherapy in Patients Aged 55 Years and Over With Philadelphia Chromosome Positive (Ph+ or BCR-ABL+) Acute Lymphoblastic Leukemia (ALL).</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>EWALLPH01</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -836,32 +876,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02883959</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Painkiller</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -880,32 +925,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01946750</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>SERODIFF</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -924,36 +974,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02896374</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Normal and Abnormal Event Related Potentials During Attribution of Intentions to Others and Resolution of Emotional Conflicts in Schizophrenia</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>SERC</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -972,36 +1027,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02901015</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Evaluation and Validation of Social Cognition Battery to Characterize Schizophrenic Patients Functioning (EVACO)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>EVACO</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1020,36 +1080,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT03115242</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Contrast Enhanced Ultrasound of Carotid Plaque in Acute Ischemic Stroke</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>CUSCAS</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1068,36 +1133,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02349074</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Digestive ENdoscopy afTeR Out-of-hospitAl Cardiac arresT</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ENTRACT</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1116,36 +1186,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02894177</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Is Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring During Spontaneous Breathing Trials Useful to Predict Extubation Failure in Mechanically Ventilated Patients in the ICU?</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>tcPCO2</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1164,36 +1239,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03030482</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Evaluation of Touch Massage on Anxiety in Critically Ill Patients : a Randomised Controlled Trial Study (REaLAX)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>REaLAX</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1212,36 +1292,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT04363528</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Incidence of Deep Vein Thrombosis at Doppler Echo in Patients With SARS-Cov-2 Pneumopathy Hospitalized in ICU</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>COVIDOP-DVT</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1260,36 +1345,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT03973385</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy of Cryotherapy for Skin Anesthesia During Arterial Puncture for Blood Gas in Critically Ill Patients. SNOW Study</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>SNOW</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1308,36 +1398,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02473146</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Etude Exploratoire randomisée Comparant le Traitement Par Gemtuzumab Ozogamicin /Cytarabine au Traitement Standard Par Idarubicine/Cytarabinechez Les Sujets âgés de 60 à 80 Ans et présentant Une LAM et un Caryotype Non défavorable</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>ALFA1401</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -67,19 +67,19 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT03166969</t>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,43 +40,25 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT03166969</t>
@@ -629,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,635 +642,407 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H17" t="s">
         <v>70</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H18" t="s">
         <v>71</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -61,28 +61,34 @@
     <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
+    <t>NCT01916785</t>
+  </si>
+  <si>
     <t>NCT03166969</t>
   </si>
   <si>
-    <t>NCT01916785</t>
-  </si>
-  <si>
     <t>NCT02963545</t>
   </si>
   <si>
+    <t>NCT02888964</t>
+  </si>
+  <si>
+    <t>NCT02888990</t>
+  </si>
+  <si>
+    <t>NCT02883959</t>
+  </si>
+  <si>
+    <t>NCT02896842</t>
+  </si>
+  <si>
     <t>NCT02882568</t>
   </si>
   <si>
-    <t>NCT02888964</t>
-  </si>
-  <si>
-    <t>NCT02896842</t>
-  </si>
-  <si>
-    <t>NCT02888990</t>
-  </si>
-  <si>
-    <t>NCT02883959</t>
+    <t>NCT02901015</t>
+  </si>
+  <si>
+    <t>NCT03115242</t>
   </si>
   <si>
     <t>NCT01946750</t>
@@ -91,12 +97,6 @@
     <t>NCT02896374</t>
   </si>
   <si>
-    <t>NCT02901015</t>
-  </si>
-  <si>
-    <t>NCT03115242</t>
-  </si>
-  <si>
     <t>NCT02349074</t>
   </si>
   <si>
@@ -145,27 +145,27 @@
     <t>Simultaneous Assessments of Serotonin and Kynurenine Pathways Parameters in Patients Shortly (Less Than 4 Hours and a Half) After the Onset of a Cerebral Infarction</t>
   </si>
   <si>
+    <t>A Study to Assess Efficacy and Safety of Pioglitazone as Add-On Therapy to Imatinib Mesylate in CP-CML Patients in Major Molecular Response</t>
+  </si>
+  <si>
+    <t>An Open Label Phase II Study to Evaluate the Efficacy and Safety of Induction and Consolidation Therapy With Dasatinib in Combination With Chemotherapy in Patients Aged 55 Years and Over With Philadelphia Chromosome Positive (Ph+ or BCR-ABL+) Acute Lymphoblastic Leukemia (ALL).</t>
+  </si>
+  <si>
+    <t>A Prospective Randomized Phase II Study Evaluating the Monitoring of Imatinib Mesylate (Glivec®) Plasmatic Through Level in Patients Newly Diagnosed With Chronic Phase Chronic Myelogenous Leukaemia (CP-CML).</t>
+  </si>
+  <si>
     <t>Analysis of Immune Response In Bacterial Infection of Obese Subject</t>
   </si>
   <si>
-    <t>A Study to Assess Efficacy and Safety of Pioglitazone as Add-On Therapy to Imatinib Mesylate in CP-CML Patients in Major Molecular Response</t>
-  </si>
-  <si>
-    <t>A Prospective Randomized Phase II Study Evaluating the Monitoring of Imatinib Mesylate (Glivec®) Plasmatic Through Level in Patients Newly Diagnosed With Chronic Phase Chronic Myelogenous Leukaemia (CP-CML).</t>
-  </si>
-  <si>
-    <t>An Open Label Phase II Study to Evaluate the Efficacy and Safety of Induction and Consolidation Therapy With Dasatinib in Combination With Chemotherapy in Patients Aged 55 Years and Over With Philadelphia Chromosome Positive (Ph+ or BCR-ABL+) Acute Lymphoblastic Leukemia (ALL).</t>
+    <t>Evaluation and Validation of Social Cognition Battery to Characterize Schizophrenic Patients Functioning (EVACO)</t>
+  </si>
+  <si>
+    <t>Contrast Enhanced Ultrasound of Carotid Plaque in Acute Ischemic Stroke</t>
   </si>
   <si>
     <t>Normal and Abnormal Event Related Potentials During Attribution of Intentions to Others and Resolution of Emotional Conflicts in Schizophrenia</t>
   </si>
   <si>
-    <t>Evaluation and Validation of Social Cognition Battery to Characterize Schizophrenic Patients Functioning (EVACO)</t>
-  </si>
-  <si>
-    <t>Contrast Enhanced Ultrasound of Carotid Plaque in Acute Ischemic Stroke</t>
-  </si>
-  <si>
     <t>Digestive ENdoscopy afTeR Out-of-hospitAl Cardiac arresT</t>
   </si>
   <si>
@@ -184,25 +184,31 @@
     <t>Etude Exploratoire randomisée Comparant le Traitement Par Gemtuzumab Ozogamicin /Cytarabine au Traitement Standard Par Idarubicine/Cytarabinechez Les Sujets âgés de 60 à 80 Ans et présentant Une LAM et un Caryotype Non défavorable</t>
   </si>
   <si>
+    <t>OPTIM-DASA</t>
+  </si>
+  <si>
     <t>HOLTER-21J</t>
   </si>
   <si>
-    <t>OPTIM-DASA</t>
+    <t>ACTIM</t>
+  </si>
+  <si>
+    <t>EWALLPH01</t>
+  </si>
+  <si>
+    <t>Painkiller</t>
+  </si>
+  <si>
+    <t>OPTIMIMATINIB</t>
   </si>
   <si>
     <t>ARIIBO</t>
   </si>
   <si>
-    <t>ACTIM</t>
-  </si>
-  <si>
-    <t>OPTIMIMATINIB</t>
-  </si>
-  <si>
-    <t>EWALLPH01</t>
-  </si>
-  <si>
-    <t>Painkiller</t>
+    <t>EVACO</t>
+  </si>
+  <si>
+    <t>CUSCAS</t>
   </si>
   <si>
     <t>SERODIFF</t>
@@ -211,12 +217,6 @@
     <t>SERC</t>
   </si>
   <si>
-    <t>EVACO</t>
-  </si>
-  <si>
-    <t>CUSCAS</t>
-  </si>
-  <si>
     <t>ENTRACT</t>
   </si>
   <si>
@@ -235,10 +235,10 @@
     <t>ALFA1401</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DRUG</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
@@ -656,6 +656,9 @@
       <c r="F2" t="s">
         <v>33</v>
       </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" t="s">
         <v>56</v>
       </c>
@@ -676,9 +679,6 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
@@ -726,7 +726,7 @@
         <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -749,15 +749,15 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -765,14 +765,11 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
       <c r="H7" t="s">
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -789,21 +786,21 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -811,11 +808,14 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -831,11 +831,14 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" t="s">
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -852,13 +855,13 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -874,14 +877,11 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" t="s">
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -927,7 +927,7 @@
         <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -950,7 +950,7 @@
         <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,7 +973,7 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1042,7 +1042,7 @@
         <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
+++ b/publipostage2/053evvt91/liste_essais_cliniques_identifies_053evvt91.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>statut</t>
   </si>
@@ -52,13 +52,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT01916785</t>
@@ -67,45 +67,45 @@
     <t>NCT03166969</t>
   </si>
   <si>
+    <t>NCT02888990</t>
+  </si>
+  <si>
+    <t>NCT02883959</t>
+  </si>
+  <si>
     <t>NCT02963545</t>
   </si>
   <si>
     <t>NCT02888964</t>
   </si>
   <si>
-    <t>NCT02888990</t>
-  </si>
-  <si>
-    <t>NCT02883959</t>
+    <t>NCT02882568</t>
   </si>
   <si>
     <t>NCT02896842</t>
   </si>
   <si>
-    <t>NCT02882568</t>
+    <t>NCT01946750</t>
+  </si>
+  <si>
+    <t>NCT03115242</t>
+  </si>
+  <si>
+    <t>NCT02896374</t>
   </si>
   <si>
     <t>NCT02901015</t>
   </si>
   <si>
-    <t>NCT03115242</t>
-  </si>
-  <si>
-    <t>NCT01946750</t>
-  </si>
-  <si>
-    <t>NCT02896374</t>
-  </si>
-  <si>
     <t>NCT02349074</t>
   </si>
   <si>
+    <t>NCT03030482</t>
+  </si>
+  <si>
     <t>NCT02894177</t>
   </si>
   <si>
-    <t>NCT03030482</t>
-  </si>
-  <si>
     <t>NCT04363528</t>
   </si>
   <si>
@@ -115,6 +115,12 @@
     <t>NCT02473146</t>
   </si>
   <si>
+    <t>NCT03690115</t>
+  </si>
+  <si>
+    <t>2020-001598-66</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -139,115 +145,134 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>A PROSPECTIVE RANDOMIZED PHASE II STUDY EVALUATING THE OPTIMIZATION OF THE RESIDUAL PLASMATIC LEVEL OF DASATINIB (SPRYCEL®) IN PATIENTS NEWLY DIAGNOSED WITH CHRONIC PHASE CHRONIC MYELOGENOUS LEUKAEMIA (CP-CML).</t>
   </si>
   <si>
+    <t>An Open Label Phase II Study to Evaluate the Efficacy and Safety of Induction and Consolidation Therapy With Dasatinib in Combination With Chemotherapy in Patients Aged 55 Years and Over With Philadelphia Chromosome Positive (Ph+ or BCR-ABL+) Acute Lymphoblastic Leukemia (ALL).</t>
+  </si>
+  <si>
     <t>Simultaneous Assessments of Serotonin and Kynurenine Pathways Parameters in Patients Shortly (Less Than 4 Hours and a Half) After the Onset of a Cerebral Infarction</t>
   </si>
   <si>
     <t>A Study to Assess Efficacy and Safety of Pioglitazone as Add-On Therapy to Imatinib Mesylate in CP-CML Patients in Major Molecular Response</t>
   </si>
   <si>
-    <t>An Open Label Phase II Study to Evaluate the Efficacy and Safety of Induction and Consolidation Therapy With Dasatinib in Combination With Chemotherapy in Patients Aged 55 Years and Over With Philadelphia Chromosome Positive (Ph+ or BCR-ABL+) Acute Lymphoblastic Leukemia (ALL).</t>
+    <t>Analysis of Immune Response In Bacterial Infection of Obese Subject</t>
   </si>
   <si>
     <t>A Prospective Randomized Phase II Study Evaluating the Monitoring of Imatinib Mesylate (Glivec®) Plasmatic Through Level in Patients Newly Diagnosed With Chronic Phase Chronic Myelogenous Leukaemia (CP-CML).</t>
   </si>
   <si>
-    <t>Analysis of Immune Response In Bacterial Infection of Obese Subject</t>
+    <t>Contrast Enhanced Ultrasound of Carotid Plaque in Acute Ischemic Stroke</t>
+  </si>
+  <si>
+    <t>Normal and Abnormal Event Related Potentials During Attribution of Intentions to Others and Resolution of Emotional Conflicts in Schizophrenia</t>
   </si>
   <si>
     <t>Evaluation and Validation of Social Cognition Battery to Characterize Schizophrenic Patients Functioning (EVACO)</t>
   </si>
   <si>
-    <t>Contrast Enhanced Ultrasound of Carotid Plaque in Acute Ischemic Stroke</t>
-  </si>
-  <si>
-    <t>Normal and Abnormal Event Related Potentials During Attribution of Intentions to Others and Resolution of Emotional Conflicts in Schizophrenia</t>
-  </si>
-  <si>
     <t>Digestive ENdoscopy afTeR Out-of-hospitAl Cardiac arresT</t>
   </si>
   <si>
+    <t>Evaluation of Touch Massage on Anxiety in Critically Ill Patients : a Randomised Controlled Trial Study (REaLAX)</t>
+  </si>
+  <si>
     <t>Is Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring During Spontaneous Breathing Trials Useful to Predict Extubation Failure in Mechanically Ventilated Patients in the ICU?</t>
   </si>
   <si>
-    <t>Evaluation of Touch Massage on Anxiety in Critically Ill Patients : a Randomised Controlled Trial Study (REaLAX)</t>
-  </si>
-  <si>
     <t>Incidence of Deep Vein Thrombosis at Doppler Echo in Patients With SARS-Cov-2 Pneumopathy Hospitalized in ICU</t>
   </si>
   <si>
+    <t>Preliminary randomized controlled trial of poractant alfa (Curosurf®) by fiberoptic bronchoscopy-directed endobronchial administration in acute respiratory distress syndrome (ARDS) due to COVID-19 viral pneumonia. 
+ Essai thérapeutique randomisé contrôlé préliminaire du poractant alfa (Curosurf®) en administration endobronchique dirigée par fibroscopie dans le syndrome de détresse respiratoire aiguë provoqué par la pneumonie virale COVID-19</t>
+  </si>
+  <si>
     <t>Evaluation of Efficacy of Cryotherapy for Skin Anesthesia During Arterial Puncture for Blood Gas in Critically Ill Patients. SNOW Study</t>
   </si>
   <si>
     <t>Etude Exploratoire randomisée Comparant le Traitement Par Gemtuzumab Ozogamicin /Cytarabine au Traitement Standard Par Idarubicine/Cytarabinechez Les Sujets âgés de 60 à 80 Ans et présentant Une LAM et un Caryotype Non défavorable</t>
   </si>
   <si>
+    <t>Phase 2 Study of Ponatinib (Iclusig) for Prevention of Relapse After Allogeneic Stem Cell Transplantation (allo-SCT) in FLT3-ITD AML Patients: the PONALLO Trial."</t>
+  </si>
+  <si>
     <t>OPTIM-DASA</t>
   </si>
   <si>
     <t>HOLTER-21J</t>
   </si>
   <si>
+    <t>EWALLPH01</t>
+  </si>
+  <si>
+    <t>Painkiller</t>
+  </si>
+  <si>
     <t>ACTIM</t>
   </si>
   <si>
-    <t>EWALLPH01</t>
-  </si>
-  <si>
-    <t>Painkiller</t>
+    <t>ARIIBO</t>
   </si>
   <si>
     <t>OPTIMIMATINIB</t>
   </si>
   <si>
-    <t>ARIIBO</t>
+    <t>SERODIFF</t>
+  </si>
+  <si>
+    <t>CUSCAS</t>
+  </si>
+  <si>
+    <t>SERC</t>
   </si>
   <si>
     <t>EVACO</t>
   </si>
   <si>
-    <t>CUSCAS</t>
-  </si>
-  <si>
-    <t>SERODIFF</t>
-  </si>
-  <si>
-    <t>SERC</t>
-  </si>
-  <si>
     <t>ENTRACT</t>
   </si>
   <si>
+    <t>REaLAX</t>
+  </si>
+  <si>
     <t>tcPCO2</t>
   </si>
   <si>
-    <t>REaLAX</t>
-  </si>
-  <si>
     <t>COVIDOP-DVT</t>
   </si>
   <si>
+    <t>CAARDS-1</t>
+  </si>
+  <si>
     <t>SNOW</t>
   </si>
   <si>
     <t>ALFA1401</t>
   </si>
   <si>
+    <t>PONALLO</t>
+  </si>
+  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>DEVICE</t>
@@ -608,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -677,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -697,36 +722,36 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -740,36 +765,36 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -783,16 +808,16 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -806,16 +831,16 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -829,16 +854,13 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -852,16 +874,16 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -875,13 +897,16 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -895,16 +920,16 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -918,16 +943,16 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -941,16 +966,16 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -964,16 +989,16 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -987,16 +1012,16 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1006,20 +1031,20 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
+      <c r="D18" t="s">
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1030,19 +1055,65 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
